--- a/Excel2Json/Test/hero_star_gem.xlsx
+++ b/Excel2Json/Test/hero_star_gem.xlsx
@@ -91,9 +91,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>宝石ICON</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -107,10 +104,6 @@
   </si>
   <si>
     <t>属性加成数值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -167,6 +160,26 @@
   </si>
   <si>
     <t>crit_chance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +634,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,16 +647,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -665,28 +678,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -697,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -711,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>10</v>
@@ -725,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
@@ -739,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -753,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -767,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -781,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5">
         <v>100</v>
@@ -795,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -809,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -823,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
         <v>5</v>
